--- a/resultados/classes_inv.xlsx
+++ b/resultados/classes_inv.xlsx
@@ -428,10 +428,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="F2" t="n">
-        <v>5.31</v>
+        <v>8.39</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="F3" t="n">
-        <v>25.78</v>
+        <v>40.73</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="H4" t="n">
-        <v>19.68</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
-        <v>11.05</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>32.44</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.29</v>
+        <v>3.62</v>
       </c>
       <c r="H7" t="n">
-        <v>57.25</v>
+        <v>90.46</v>
       </c>
     </row>
     <row r="8">
@@ -590,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>4.31</v>
       </c>
       <c r="H8" t="n">
-        <v>68.12</v>
+        <v>107.64</v>
       </c>
     </row>
   </sheetData>
